--- a/Driver.xlsx
+++ b/Driver.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F583C0F3-50B3-4E95-90B5-78ABF1AA3FC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF148F8-3E38-41A8-9D59-EB6EBDA04CDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Budgetuser002</t>
+    <t>ramesh.potalapuvvu@gapac.com</t>
   </si>
   <si>
-    <t>Abcd@1234</t>
-  </si>
-  <si>
-    <t>Businesstest01</t>
+    <t>Winter@123</t>
   </si>
 </sst>
 </file>
@@ -383,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -402,18 +399,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Driver.xlsx
+++ b/Driver.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2AEA3-E38E-4220-8D4A-333229D118E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4714DDF-B427-45C1-BEE6-B5DB15EC9223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,13 @@
     <t>PlannedQtyval</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>DeliveryPickupval</t>
   </si>
   <si>
     <t>CPU</t>
+  </si>
+  <si>
+    <t>1897</t>
   </si>
 </sst>
 </file>
@@ -437,9 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -480,7 +478,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -506,10 +504,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
